--- a/LaLiga_Games.xlsx
+++ b/LaLiga_Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{238AF2B3-B98B-4420-B42F-065A6E534E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F6B28-DD01-4A1E-847C-9D0F3B7633C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F89C1013-901B-4114-8209-3717706E1150}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t>Almería</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>FC Barcelona</t>
+  </si>
+  <si>
+    <t>Ligue</t>
+  </si>
+  <si>
+    <t>La Liga</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -514,4213 +546,5358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A381"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
         <v>3</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
         <v>4</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1">
         <v>4</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1">
         <v>6</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
         <v>6</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
         <v>6</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1">
         <v>6</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1">
         <v>6</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
         <v>6</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1">
         <v>6</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
         <v>6</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1">
         <v>6</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1">
         <v>7</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1">
         <v>7</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1">
         <v>7</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1">
         <v>7</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1">
         <v>7</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1">
         <v>7</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1">
         <v>7</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1">
         <v>7</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1">
         <v>7</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1">
         <v>8</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1">
         <v>8</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1">
         <v>8</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1">
         <v>8</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1">
         <v>8</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1">
         <v>8</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1">
         <v>8</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1">
         <v>8</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1">
         <v>8</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1">
         <v>8</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1">
         <v>9</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1">
         <v>9</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1">
         <v>9</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1">
         <v>9</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="1">
         <v>9</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="1">
         <v>9</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="1">
         <v>9</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="1">
         <v>9</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="1">
         <v>9</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="1">
         <v>9</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="1">
         <v>10</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="1">
         <v>10</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1">
         <v>10</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="1">
         <v>10</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1">
         <v>10</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="1">
         <v>10</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="1">
         <v>10</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="1">
         <v>10</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="1">
         <v>10</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="1">
         <v>10</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1">
         <v>11</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="1">
         <v>11</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="1">
         <v>11</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="1">
         <v>11</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="1">
         <v>11</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="1">
         <v>11</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="1">
         <v>11</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="1">
         <v>11</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="1">
         <v>11</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="1">
         <v>11</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="1">
         <v>12</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="1">
         <v>12</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="1">
         <v>12</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="1">
         <v>12</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="1">
         <v>12</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="1">
         <v>12</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="1">
         <v>12</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="1">
         <v>12</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" s="1">
         <v>12</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="1">
         <v>12</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="1">
         <v>13</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="1">
         <v>13</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1">
         <v>13</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="1">
         <v>13</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="1">
         <v>13</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="1">
         <v>13</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1">
         <v>13</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1">
         <v>13</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="1">
         <v>13</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1">
         <v>13</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="1">
         <v>14</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="1">
         <v>14</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="1">
         <v>14</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="1">
         <v>14</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="1">
         <v>14</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="1">
         <v>14</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="1">
         <v>14</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="1">
         <v>14</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="1">
         <v>14</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="1">
         <v>14</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="1">
         <v>15</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="1">
         <v>15</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1">
         <v>15</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="1">
         <v>15</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="1">
         <v>15</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="1">
         <v>15</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="1">
         <v>15</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="1">
         <v>15</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="1">
         <v>15</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="1">
         <v>15</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="1">
         <v>16</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="1">
         <v>16</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="1">
         <v>16</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="1">
         <v>16</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="1">
         <v>16</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="1">
         <v>16</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="1">
         <v>16</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="1">
         <v>16</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="1">
         <v>16</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" s="1">
         <v>16</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="1">
         <v>17</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="1">
         <v>17</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" s="1">
         <v>17</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" s="1">
         <v>17</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="1">
         <v>17</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="1">
         <v>17</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" s="1">
         <v>17</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="1">
         <v>17</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" s="1">
         <v>17</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" s="1">
         <v>17</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" s="1">
         <v>18</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" s="1">
         <v>18</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" s="1">
         <v>18</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="1">
         <v>18</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="1">
         <v>18</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="1">
         <v>18</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" s="1">
         <v>18</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="1">
         <v>18</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="1">
         <v>18</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="1">
         <v>18</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="1">
         <v>19</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" s="1">
         <v>19</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" s="1">
         <v>19</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" s="1">
         <v>19</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>24</v>
+      </c>
+      <c r="B186" s="1">
         <v>19</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="1">
         <v>19</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="1">
         <v>19</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="1">
         <v>19</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+      <c r="B190" s="1">
         <v>19</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" s="1">
         <v>19</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" s="1">
         <v>20</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="1">
         <v>20</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="1">
         <v>20</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="C194" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" s="1">
         <v>20</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="1">
         <v>20</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" s="1">
         <v>20</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="1">
         <v>20</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="C198" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="1">
         <v>20</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="C199" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>24</v>
+      </c>
+      <c r="B200" s="1">
         <v>20</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="C200" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" s="1">
         <v>20</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" s="1">
         <v>21</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" s="1">
         <v>21</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" s="1">
         <v>21</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205" s="1">
         <v>21</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="C205" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" s="1">
         <v>21</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D206" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" s="1">
         <v>21</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" s="1">
         <v>21</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="1">
         <v>21</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="C209" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D209" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" s="1">
         <v>21</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="C210" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D210" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="1">
         <v>21</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="1">
         <v>22</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="C212" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="1">
         <v>22</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="C213" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="D213" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" s="1">
         <v>22</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="D214" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215" s="1">
         <v>22</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="C215" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="D215" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216" s="1">
         <v>22</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="C216" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" s="1">
         <v>22</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" s="1">
         <v>22</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="C218" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="D218" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" s="1">
         <v>22</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="C219" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220" s="1">
         <v>22</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221" s="1">
         <v>22</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" s="1">
         <v>23</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="C222" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="1">
         <v>23</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="D223" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" s="1">
         <v>23</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="C224" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" s="1">
         <v>23</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="C225" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="D225" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>24</v>
+      </c>
+      <c r="B226" s="1">
         <v>23</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="D226" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" s="1">
         <v>23</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="C227" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="D227" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>24</v>
+      </c>
+      <c r="B228" s="1">
         <v>23</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="C228" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="D228" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="1">
         <v>23</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="D229" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="1">
         <v>23</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="C230" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" s="1">
         <v>23</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="C231" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>24</v>
-      </c>
-      <c r="B232" s="3" t="s">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>24</v>
+      </c>
+      <c r="B232" s="1">
+        <v>24</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>24</v>
-      </c>
-      <c r="B233" s="3" t="s">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" s="1">
+        <v>24</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>24</v>
-      </c>
-      <c r="B234" s="3" t="s">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" s="1">
+        <v>24</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="D234" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>24</v>
-      </c>
-      <c r="B235" s="3" t="s">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="1">
+        <v>24</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>24</v>
-      </c>
-      <c r="B236" s="3" t="s">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="1">
+        <v>24</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>24</v>
-      </c>
-      <c r="B237" s="3" t="s">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" s="1">
+        <v>24</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>24</v>
-      </c>
-      <c r="B238" s="3" t="s">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238" s="1">
+        <v>24</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>24</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>24</v>
+      </c>
+      <c r="B239" s="1">
+        <v>24</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>24</v>
-      </c>
-      <c r="B240" s="3" t="s">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" s="1">
+        <v>24</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>24</v>
-      </c>
-      <c r="B241" s="3" t="s">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" s="1">
+        <v>24</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>24</v>
+      </c>
+      <c r="B242" s="1">
         <v>25</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="C242" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" s="1">
         <v>25</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="C243" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244" s="1">
         <v>25</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" s="1">
         <v>25</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="C245" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" s="1">
         <v>25</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="C246" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="1">
         <v>25</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="1">
         <v>25</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="1">
         <v>25</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="C249" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="1">
         <v>25</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="C250" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="1">
         <v>25</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="C251" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="1">
         <v>26</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="C252" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="1">
         <v>26</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="C253" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="D253" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="1">
         <v>26</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="1">
         <v>26</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="D255" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" s="1">
         <v>26</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="1">
         <v>26</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" s="1">
         <v>26</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" s="1">
         <v>26</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" s="1">
         <v>26</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="1">
         <v>26</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="1">
         <v>27</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="1">
         <v>27</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" s="1">
         <v>27</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="1">
         <v>27</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="1">
         <v>27</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1">
         <v>27</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="C267" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1">
         <v>27</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1">
         <v>27</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="C269" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="D269" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1">
         <v>27</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1">
         <v>27</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="1">
         <v>28</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="C272" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="1">
         <v>28</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="D273" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="1">
         <v>28</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="C274" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="1">
         <v>28</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="C275" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D275" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="1">
         <v>28</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="C276" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="1">
         <v>28</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="C277" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="1">
         <v>28</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="C278" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D278" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="1">
         <v>28</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="1">
         <v>28</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="1">
         <v>28</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="C281" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="1">
         <v>29</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="C282" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1">
         <v>29</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" s="1">
         <v>29</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="C284" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="1">
         <v>29</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="D285" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="1">
         <v>29</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" s="1">
         <v>29</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" s="1">
         <v>29</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="C288" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" s="1">
         <v>29</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" s="1">
         <v>29</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>24</v>
+      </c>
+      <c r="B291" s="1">
         <v>29</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="C291" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="D291" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>24</v>
+      </c>
+      <c r="B292" s="1">
         <v>30</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="C292" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>24</v>
+      </c>
+      <c r="B293" s="1">
         <v>30</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>24</v>
+      </c>
+      <c r="B294" s="1">
         <v>30</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="C294" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" s="1">
         <v>30</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="C295" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="1">
         <v>30</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="D296" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="1">
         <v>30</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>24</v>
+      </c>
+      <c r="B298" s="1">
         <v>30</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299" s="1">
         <v>30</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="1">
         <v>30</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="C300" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="D300" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301" s="1">
         <v>30</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="C301" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="D301" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" s="1">
         <v>31</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="C302" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303" s="1">
         <v>31</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="1">
         <v>31</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="C304" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="D304" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>24</v>
+      </c>
+      <c r="B305" s="1">
         <v>31</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="C305" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>24</v>
+      </c>
+      <c r="B306" s="1">
         <v>31</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="C306" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>24</v>
+      </c>
+      <c r="B307" s="1">
         <v>31</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>24</v>
+      </c>
+      <c r="B308" s="1">
         <v>31</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="C308" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>24</v>
+      </c>
+      <c r="B309" s="1">
         <v>31</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="C309" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310" s="1">
         <v>31</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="1">
         <v>31</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="C311" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="1">
         <v>32</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="C312" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313" s="1">
         <v>32</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="C313" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>24</v>
+      </c>
+      <c r="B314" s="1">
         <v>32</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>24</v>
+      </c>
+      <c r="B315" s="1">
         <v>32</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="C315" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D315" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316" s="1">
         <v>32</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>24</v>
+      </c>
+      <c r="B317" s="1">
         <v>32</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>24</v>
+      </c>
+      <c r="B318" s="1">
         <v>32</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="1">
         <v>32</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" s="1">
         <v>32</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="C320" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" s="1">
         <v>32</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>24</v>
+      </c>
+      <c r="B322" s="1">
         <v>33</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" s="1">
         <v>33</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" s="1">
         <v>33</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>24</v>
+      </c>
+      <c r="B325" s="1">
         <v>33</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="C325" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" s="1">
         <v>33</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>24</v>
+      </c>
+      <c r="B327" s="1">
         <v>33</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>24</v>
+      </c>
+      <c r="B328" s="1">
         <v>33</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="C328" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D328" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="1">
         <v>33</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>24</v>
+      </c>
+      <c r="B330" s="1">
         <v>33</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+      <c r="B331" s="1">
         <v>33</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="C331" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>24</v>
+      </c>
+      <c r="B332" s="1">
         <v>34</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="C332" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333" s="1">
         <v>34</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="C333" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D333" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>24</v>
+      </c>
+      <c r="B334" s="1">
         <v>34</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D334" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>24</v>
+      </c>
+      <c r="B335" s="1">
         <v>34</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="C335" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>24</v>
+      </c>
+      <c r="B336" s="1">
         <v>34</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="C336" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>24</v>
+      </c>
+      <c r="B337" s="1">
         <v>34</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="C337" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>24</v>
+      </c>
+      <c r="B338" s="1">
         <v>34</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="C338" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>24</v>
+      </c>
+      <c r="B339" s="1">
         <v>34</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="C339" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>24</v>
+      </c>
+      <c r="B340" s="1">
         <v>34</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="C340" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="D340" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>24</v>
+      </c>
+      <c r="B341" s="1">
         <v>34</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="C341" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D341" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>24</v>
+      </c>
+      <c r="B342" s="1">
         <v>35</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="C342" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="D342" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>24</v>
+      </c>
+      <c r="B343" s="1">
         <v>35</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="C343" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="D343" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" s="1">
         <v>35</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="D344" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>24</v>
+      </c>
+      <c r="B345" s="1">
         <v>35</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="D345" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>24</v>
+      </c>
+      <c r="B346" s="1">
         <v>35</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="C346" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="D346" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>24</v>
+      </c>
+      <c r="B347" s="1">
         <v>35</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="C347" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="D347" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>24</v>
+      </c>
+      <c r="B348" s="1">
         <v>35</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>24</v>
+      </c>
+      <c r="B349" s="1">
         <v>35</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="C349" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="D349" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>24</v>
+      </c>
+      <c r="B350" s="1">
         <v>35</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="C350" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="D350" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>24</v>
+      </c>
+      <c r="B351" s="1">
         <v>35</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="C351" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="D351" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>24</v>
+      </c>
+      <c r="B352" s="1">
         <v>36</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="C352" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="D352" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>24</v>
+      </c>
+      <c r="B353" s="1">
         <v>36</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="C353" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="D353" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>24</v>
+      </c>
+      <c r="B354" s="1">
         <v>36</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="C354" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="D354" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>24</v>
+      </c>
+      <c r="B355" s="1">
         <v>36</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="C355" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="D355" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>24</v>
+      </c>
+      <c r="B356" s="1">
         <v>36</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="C356" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="D356" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>24</v>
+      </c>
+      <c r="B357" s="1">
         <v>36</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="C357" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="D357" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>24</v>
+      </c>
+      <c r="B358" s="1">
         <v>36</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="C358" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>24</v>
+      </c>
+      <c r="B359" s="1">
         <v>36</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="C359" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="D359" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>24</v>
+      </c>
+      <c r="B360" s="1">
         <v>36</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="C360" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="D360" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>24</v>
+      </c>
+      <c r="B361" s="1">
         <v>36</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="C361" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="D361" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>24</v>
+      </c>
+      <c r="B362" s="1">
         <v>37</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="C362" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="D362" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363" s="1">
         <v>37</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="C363" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="D363" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+      <c r="B364" s="1">
         <v>37</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365" s="1">
         <v>37</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="C365" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="D365" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>24</v>
+      </c>
+      <c r="B366" s="1">
         <v>37</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="C366" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="D366" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>24</v>
+      </c>
+      <c r="B367" s="1">
         <v>37</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="C367" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="D367" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368" s="1">
         <v>37</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="C368" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="D368" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
+    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>24</v>
+      </c>
+      <c r="B369" s="1">
         <v>37</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="C369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="D369" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>24</v>
+      </c>
+      <c r="B370" s="1">
         <v>37</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="C370" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="D370" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
+    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>24</v>
+      </c>
+      <c r="B371" s="1">
         <v>37</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="C371" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="D371" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
+    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>24</v>
+      </c>
+      <c r="B372" s="1">
         <v>38</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="C372" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="D372" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
+    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>24</v>
+      </c>
+      <c r="B373" s="1">
         <v>38</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="C373" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="D373" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
+    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>24</v>
+      </c>
+      <c r="B374" s="1">
         <v>38</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="C374" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="D374" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
+    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>24</v>
+      </c>
+      <c r="B375" s="1">
         <v>38</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="C375" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="D375" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
+    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>24</v>
+      </c>
+      <c r="B376" s="1">
         <v>38</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="C376" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="D376" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
+    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>24</v>
+      </c>
+      <c r="B377" s="1">
         <v>38</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="C377" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="D377" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
+    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>24</v>
+      </c>
+      <c r="B378" s="1">
         <v>38</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="C378" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="D378" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
+    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>24</v>
+      </c>
+      <c r="B379" s="1">
         <v>38</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="C379" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="D379" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
+    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>24</v>
+      </c>
+      <c r="B380" s="1">
         <v>38</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="C380" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="D380" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
+    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>24</v>
+      </c>
+      <c r="B381" s="1">
         <v>38</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="C381" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="D381" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}"/>
-  <conditionalFormatting sqref="A2:C381">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <autoFilter ref="B1:M1" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}"/>
+  <conditionalFormatting sqref="B2:D381">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LaLiga_Games.xlsx
+++ b/LaLiga_Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F6B28-DD01-4A1E-847C-9D0F3B7633C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2638567-BF01-42DA-893E-0C088621BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F89C1013-901B-4114-8209-3717706E1150}"/>
   </bookViews>
@@ -110,10 +110,10 @@
     <t>FC Barcelona</t>
   </si>
   <si>
-    <t>Ligue</t>
+    <t>La Liga</t>
   </si>
   <si>
-    <t>La Liga</t>
+    <t>League</t>
   </si>
 </sst>
 </file>
@@ -196,33 +196,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -548,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}">
   <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A381"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -562,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -576,7 +548,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -590,7 +562,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -604,7 +576,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -618,7 +590,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -632,7 +604,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -646,7 +618,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -660,7 +632,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -674,7 +646,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -688,7 +660,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -702,7 +674,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -716,7 +688,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -730,7 +702,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -744,7 +716,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -758,7 +730,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -772,7 +744,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -786,7 +758,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -800,7 +772,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -814,7 +786,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -828,7 +800,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -842,7 +814,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -856,7 +828,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -870,7 +842,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -884,7 +856,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -898,7 +870,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -912,7 +884,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -926,7 +898,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -940,7 +912,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -954,7 +926,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -968,7 +940,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -982,7 +954,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -996,7 +968,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <v>4</v>
@@ -1010,7 +982,7 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
@@ -1024,7 +996,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -1038,7 +1010,7 @@
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
@@ -1052,7 +1024,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
@@ -1066,7 +1038,7 @@
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
@@ -1080,7 +1052,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
@@ -1094,7 +1066,7 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -1108,7 +1080,7 @@
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -1122,7 +1094,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1136,7 +1108,7 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
         <v>5</v>
@@ -1150,7 +1122,7 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
@@ -1164,7 +1136,7 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
@@ -1178,7 +1150,7 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1">
         <v>5</v>
@@ -1192,7 +1164,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -1206,7 +1178,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>5</v>
@@ -1220,7 +1192,7 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1">
         <v>5</v>
@@ -1234,7 +1206,7 @@
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1">
         <v>5</v>
@@ -1248,7 +1220,7 @@
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1">
         <v>5</v>
@@ -1262,7 +1234,7 @@
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1">
         <v>5</v>
@@ -1276,7 +1248,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1">
         <v>6</v>
@@ -1290,7 +1262,7 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1">
         <v>6</v>
@@ -1304,7 +1276,7 @@
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1">
         <v>6</v>
@@ -1318,7 +1290,7 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1">
         <v>6</v>
@@ -1332,7 +1304,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1">
         <v>6</v>
@@ -1346,7 +1318,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1">
         <v>6</v>
@@ -1360,7 +1332,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1">
         <v>6</v>
@@ -1374,7 +1346,7 @@
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
         <v>6</v>
@@ -1388,7 +1360,7 @@
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1">
         <v>6</v>
@@ -1402,7 +1374,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
@@ -1416,7 +1388,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1">
         <v>7</v>
@@ -1430,7 +1402,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1">
         <v>7</v>
@@ -1444,7 +1416,7 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1">
         <v>7</v>
@@ -1458,7 +1430,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1">
         <v>7</v>
@@ -1472,7 +1444,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1">
         <v>7</v>
@@ -1486,7 +1458,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1">
         <v>7</v>
@@ -1500,7 +1472,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="1">
         <v>7</v>
@@ -1514,7 +1486,7 @@
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1">
         <v>7</v>
@@ -1528,7 +1500,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
         <v>7</v>
@@ -1542,7 +1514,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1">
         <v>7</v>
@@ -1556,7 +1528,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1">
         <v>8</v>
@@ -1570,7 +1542,7 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1">
         <v>8</v>
@@ -1584,7 +1556,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74" s="1">
         <v>8</v>
@@ -1598,7 +1570,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -1612,7 +1584,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1">
         <v>8</v>
@@ -1626,7 +1598,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="1">
         <v>8</v>
@@ -1640,7 +1612,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="1">
         <v>8</v>
@@ -1654,7 +1626,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="1">
         <v>8</v>
@@ -1668,7 +1640,7 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="1">
         <v>8</v>
@@ -1682,7 +1654,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1">
         <v>8</v>
@@ -1696,7 +1668,7 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1">
         <v>9</v>
@@ -1710,7 +1682,7 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83" s="1">
         <v>9</v>
@@ -1724,7 +1696,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="1">
         <v>9</v>
@@ -1738,7 +1710,7 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1">
         <v>9</v>
@@ -1752,7 +1724,7 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" s="1">
         <v>9</v>
@@ -1766,7 +1738,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1">
         <v>9</v>
@@ -1780,7 +1752,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88" s="1">
         <v>9</v>
@@ -1794,7 +1766,7 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="1">
         <v>9</v>
@@ -1808,7 +1780,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="1">
         <v>9</v>
@@ -1822,7 +1794,7 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B91" s="1">
         <v>9</v>
@@ -1836,7 +1808,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92" s="1">
         <v>10</v>
@@ -1850,7 +1822,7 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="1">
         <v>10</v>
@@ -1864,7 +1836,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="1">
         <v>10</v>
@@ -1878,7 +1850,7 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="1">
         <v>10</v>
@@ -1892,7 +1864,7 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="1">
         <v>10</v>
@@ -1906,7 +1878,7 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="1">
         <v>10</v>
@@ -1920,7 +1892,7 @@
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="1">
         <v>10</v>
@@ -1934,7 +1906,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="1">
         <v>10</v>
@@ -1948,7 +1920,7 @@
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="1">
         <v>10</v>
@@ -1962,7 +1934,7 @@
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="1">
         <v>10</v>
@@ -1976,7 +1948,7 @@
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="1">
         <v>11</v>
@@ -1990,7 +1962,7 @@
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="1">
         <v>11</v>
@@ -2004,7 +1976,7 @@
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="1">
         <v>11</v>
@@ -2018,7 +1990,7 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="1">
         <v>11</v>
@@ -2032,7 +2004,7 @@
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1">
         <v>11</v>
@@ -2046,7 +2018,7 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107" s="1">
         <v>11</v>
@@ -2060,7 +2032,7 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="1">
         <v>11</v>
@@ -2074,7 +2046,7 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" s="1">
         <v>11</v>
@@ -2088,7 +2060,7 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" s="1">
         <v>11</v>
@@ -2102,7 +2074,7 @@
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" s="1">
         <v>11</v>
@@ -2116,7 +2088,7 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" s="1">
         <v>12</v>
@@ -2130,7 +2102,7 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1">
         <v>12</v>
@@ -2144,7 +2116,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" s="1">
         <v>12</v>
@@ -2158,7 +2130,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B115" s="1">
         <v>12</v>
@@ -2172,7 +2144,7 @@
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="1">
         <v>12</v>
@@ -2186,7 +2158,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" s="1">
         <v>12</v>
@@ -2200,7 +2172,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" s="1">
         <v>12</v>
@@ -2214,7 +2186,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="1">
         <v>12</v>
@@ -2228,7 +2200,7 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" s="1">
         <v>12</v>
@@ -2242,7 +2214,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" s="1">
         <v>12</v>
@@ -2256,7 +2228,7 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" s="1">
         <v>13</v>
@@ -2270,7 +2242,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="1">
         <v>13</v>
@@ -2284,7 +2256,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="1">
         <v>13</v>
@@ -2298,7 +2270,7 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="1">
         <v>13</v>
@@ -2312,7 +2284,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B126" s="1">
         <v>13</v>
@@ -2326,7 +2298,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1">
         <v>13</v>
@@ -2340,7 +2312,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1">
         <v>13</v>
@@ -2354,7 +2326,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B129" s="1">
         <v>13</v>
@@ -2368,7 +2340,7 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B130" s="1">
         <v>13</v>
@@ -2382,7 +2354,7 @@
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B131" s="1">
         <v>13</v>
@@ -2396,7 +2368,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B132" s="1">
         <v>14</v>
@@ -2410,7 +2382,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B133" s="1">
         <v>14</v>
@@ -2424,7 +2396,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B134" s="1">
         <v>14</v>
@@ -2438,7 +2410,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B135" s="1">
         <v>14</v>
@@ -2452,7 +2424,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B136" s="1">
         <v>14</v>
@@ -2466,7 +2438,7 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B137" s="1">
         <v>14</v>
@@ -2480,7 +2452,7 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138" s="1">
         <v>14</v>
@@ -2494,7 +2466,7 @@
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B139" s="1">
         <v>14</v>
@@ -2508,7 +2480,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B140" s="1">
         <v>14</v>
@@ -2522,7 +2494,7 @@
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B141" s="1">
         <v>14</v>
@@ -2536,7 +2508,7 @@
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B142" s="1">
         <v>15</v>
@@ -2550,7 +2522,7 @@
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B143" s="1">
         <v>15</v>
@@ -2564,7 +2536,7 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144" s="1">
         <v>15</v>
@@ -2578,7 +2550,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145" s="1">
         <v>15</v>
@@ -2592,7 +2564,7 @@
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B146" s="1">
         <v>15</v>
@@ -2606,7 +2578,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B147" s="1">
         <v>15</v>
@@ -2620,7 +2592,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B148" s="1">
         <v>15</v>
@@ -2634,7 +2606,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B149" s="1">
         <v>15</v>
@@ -2648,7 +2620,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B150" s="1">
         <v>15</v>
@@ -2662,7 +2634,7 @@
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B151" s="1">
         <v>15</v>
@@ -2676,7 +2648,7 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" s="1">
         <v>16</v>
@@ -2690,7 +2662,7 @@
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
@@ -2704,7 +2676,7 @@
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
@@ -2718,7 +2690,7 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B155" s="1">
         <v>16</v>
@@ -2732,7 +2704,7 @@
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B156" s="1">
         <v>16</v>
@@ -2746,7 +2718,7 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B157" s="1">
         <v>16</v>
@@ -2760,7 +2732,7 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158" s="1">
         <v>16</v>
@@ -2774,7 +2746,7 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159" s="1">
         <v>16</v>
@@ -2788,7 +2760,7 @@
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
@@ -2802,7 +2774,7 @@
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B161" s="1">
         <v>16</v>
@@ -2816,7 +2788,7 @@
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B162" s="1">
         <v>17</v>
@@ -2830,7 +2802,7 @@
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B163" s="1">
         <v>17</v>
@@ -2844,7 +2816,7 @@
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B164" s="1">
         <v>17</v>
@@ -2858,7 +2830,7 @@
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B165" s="1">
         <v>17</v>
@@ -2872,7 +2844,7 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B166" s="1">
         <v>17</v>
@@ -2886,7 +2858,7 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B167" s="1">
         <v>17</v>
@@ -2900,7 +2872,7 @@
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B168" s="1">
         <v>17</v>
@@ -2914,7 +2886,7 @@
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B169" s="1">
         <v>17</v>
@@ -2928,7 +2900,7 @@
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B170" s="1">
         <v>17</v>
@@ -2942,7 +2914,7 @@
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B171" s="1">
         <v>17</v>
@@ -2956,7 +2928,7 @@
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B172" s="1">
         <v>18</v>
@@ -2970,7 +2942,7 @@
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B173" s="1">
         <v>18</v>
@@ -2984,7 +2956,7 @@
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B174" s="1">
         <v>18</v>
@@ -2998,7 +2970,7 @@
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B175" s="1">
         <v>18</v>
@@ -3012,7 +2984,7 @@
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B176" s="1">
         <v>18</v>
@@ -3026,7 +2998,7 @@
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B177" s="1">
         <v>18</v>
@@ -3040,7 +3012,7 @@
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B178" s="1">
         <v>18</v>
@@ -3054,7 +3026,7 @@
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B179" s="1">
         <v>18</v>
@@ -3068,7 +3040,7 @@
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B180" s="1">
         <v>18</v>
@@ -3082,7 +3054,7 @@
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B181" s="1">
         <v>18</v>
@@ -3096,7 +3068,7 @@
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B182" s="1">
         <v>19</v>
@@ -3110,7 +3082,7 @@
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B183" s="1">
         <v>19</v>
@@ -3124,7 +3096,7 @@
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B184" s="1">
         <v>19</v>
@@ -3138,7 +3110,7 @@
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B185" s="1">
         <v>19</v>
@@ -3152,7 +3124,7 @@
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B186" s="1">
         <v>19</v>
@@ -3166,7 +3138,7 @@
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B187" s="1">
         <v>19</v>
@@ -3180,7 +3152,7 @@
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B188" s="1">
         <v>19</v>
@@ -3194,7 +3166,7 @@
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B189" s="1">
         <v>19</v>
@@ -3208,7 +3180,7 @@
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B190" s="1">
         <v>19</v>
@@ -3222,7 +3194,7 @@
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B191" s="1">
         <v>19</v>
@@ -3236,7 +3208,7 @@
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192" s="1">
         <v>20</v>
@@ -3250,7 +3222,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B193" s="1">
         <v>20</v>
@@ -3264,7 +3236,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B194" s="1">
         <v>20</v>
@@ -3278,7 +3250,7 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B195" s="1">
         <v>20</v>
@@ -3292,7 +3264,7 @@
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B196" s="1">
         <v>20</v>
@@ -3306,7 +3278,7 @@
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B197" s="1">
         <v>20</v>
@@ -3320,7 +3292,7 @@
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B198" s="1">
         <v>20</v>
@@ -3334,7 +3306,7 @@
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B199" s="1">
         <v>20</v>
@@ -3348,7 +3320,7 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B200" s="1">
         <v>20</v>
@@ -3362,7 +3334,7 @@
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B201" s="1">
         <v>20</v>
@@ -3376,7 +3348,7 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B202" s="1">
         <v>21</v>
@@ -3390,7 +3362,7 @@
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B203" s="1">
         <v>21</v>
@@ -3404,7 +3376,7 @@
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B204" s="1">
         <v>21</v>
@@ -3418,7 +3390,7 @@
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B205" s="1">
         <v>21</v>
@@ -3432,7 +3404,7 @@
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B206" s="1">
         <v>21</v>
@@ -3446,7 +3418,7 @@
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B207" s="1">
         <v>21</v>
@@ -3460,7 +3432,7 @@
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B208" s="1">
         <v>21</v>
@@ -3474,7 +3446,7 @@
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B209" s="1">
         <v>21</v>
@@ -3488,7 +3460,7 @@
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B210" s="1">
         <v>21</v>
@@ -3502,7 +3474,7 @@
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B211" s="1">
         <v>21</v>
@@ -3516,7 +3488,7 @@
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B212" s="1">
         <v>22</v>
@@ -3530,7 +3502,7 @@
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B213" s="1">
         <v>22</v>
@@ -3544,7 +3516,7 @@
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B214" s="1">
         <v>22</v>
@@ -3558,7 +3530,7 @@
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B215" s="1">
         <v>22</v>
@@ -3572,7 +3544,7 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B216" s="1">
         <v>22</v>
@@ -3586,7 +3558,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B217" s="1">
         <v>22</v>
@@ -3600,7 +3572,7 @@
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B218" s="1">
         <v>22</v>
@@ -3614,7 +3586,7 @@
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B219" s="1">
         <v>22</v>
@@ -3628,7 +3600,7 @@
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B220" s="1">
         <v>22</v>
@@ -3642,7 +3614,7 @@
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B221" s="1">
         <v>22</v>
@@ -3656,7 +3628,7 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B222" s="1">
         <v>23</v>
@@ -3670,7 +3642,7 @@
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B223" s="1">
         <v>23</v>
@@ -3684,7 +3656,7 @@
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B224" s="1">
         <v>23</v>
@@ -3698,7 +3670,7 @@
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B225" s="1">
         <v>23</v>
@@ -3712,7 +3684,7 @@
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B226" s="1">
         <v>23</v>
@@ -3726,7 +3698,7 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B227" s="1">
         <v>23</v>
@@ -3740,7 +3712,7 @@
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B228" s="1">
         <v>23</v>
@@ -3754,7 +3726,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B229" s="1">
         <v>23</v>
@@ -3768,7 +3740,7 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B230" s="1">
         <v>23</v>
@@ -3782,7 +3754,7 @@
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B231" s="1">
         <v>23</v>
@@ -3796,7 +3768,7 @@
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B232" s="1">
         <v>24</v>
@@ -3810,7 +3782,7 @@
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B233" s="1">
         <v>24</v>
@@ -3824,7 +3796,7 @@
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B234" s="1">
         <v>24</v>
@@ -3838,7 +3810,7 @@
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B235" s="1">
         <v>24</v>
@@ -3852,7 +3824,7 @@
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B236" s="1">
         <v>24</v>
@@ -3866,7 +3838,7 @@
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B237" s="1">
         <v>24</v>
@@ -3880,7 +3852,7 @@
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B238" s="1">
         <v>24</v>
@@ -3894,7 +3866,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B239" s="1">
         <v>24</v>
@@ -3908,7 +3880,7 @@
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B240" s="1">
         <v>24</v>
@@ -3922,7 +3894,7 @@
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B241" s="1">
         <v>24</v>
@@ -3936,7 +3908,7 @@
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B242" s="1">
         <v>25</v>
@@ -3950,7 +3922,7 @@
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B243" s="1">
         <v>25</v>
@@ -3964,7 +3936,7 @@
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B244" s="1">
         <v>25</v>
@@ -3978,7 +3950,7 @@
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B245" s="1">
         <v>25</v>
@@ -3992,7 +3964,7 @@
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B246" s="1">
         <v>25</v>
@@ -4006,7 +3978,7 @@
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B247" s="1">
         <v>25</v>
@@ -4020,7 +3992,7 @@
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B248" s="1">
         <v>25</v>
@@ -4034,7 +4006,7 @@
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B249" s="1">
         <v>25</v>
@@ -4048,7 +4020,7 @@
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B250" s="1">
         <v>25</v>
@@ -4062,7 +4034,7 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B251" s="1">
         <v>25</v>
@@ -4076,7 +4048,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B252" s="1">
         <v>26</v>
@@ -4090,7 +4062,7 @@
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B253" s="1">
         <v>26</v>
@@ -4104,7 +4076,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B254" s="1">
         <v>26</v>
@@ -4118,7 +4090,7 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B255" s="1">
         <v>26</v>
@@ -4132,7 +4104,7 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B256" s="1">
         <v>26</v>
@@ -4146,7 +4118,7 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B257" s="1">
         <v>26</v>
@@ -4160,7 +4132,7 @@
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B258" s="1">
         <v>26</v>
@@ -4174,7 +4146,7 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B259" s="1">
         <v>26</v>
@@ -4188,7 +4160,7 @@
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B260" s="1">
         <v>26</v>
@@ -4202,7 +4174,7 @@
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B261" s="1">
         <v>26</v>
@@ -4216,7 +4188,7 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B262" s="1">
         <v>27</v>
@@ -4230,7 +4202,7 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B263" s="1">
         <v>27</v>
@@ -4244,7 +4216,7 @@
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B264" s="1">
         <v>27</v>
@@ -4258,7 +4230,7 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B265" s="1">
         <v>27</v>
@@ -4272,7 +4244,7 @@
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B266" s="1">
         <v>27</v>
@@ -4286,7 +4258,7 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B267" s="1">
         <v>27</v>
@@ -4300,7 +4272,7 @@
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B268" s="1">
         <v>27</v>
@@ -4314,7 +4286,7 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B269" s="1">
         <v>27</v>
@@ -4328,7 +4300,7 @@
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B270" s="1">
         <v>27</v>
@@ -4342,7 +4314,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B271" s="1">
         <v>27</v>
@@ -4356,7 +4328,7 @@
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B272" s="1">
         <v>28</v>
@@ -4370,7 +4342,7 @@
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B273" s="1">
         <v>28</v>
@@ -4384,7 +4356,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B274" s="1">
         <v>28</v>
@@ -4398,7 +4370,7 @@
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B275" s="1">
         <v>28</v>
@@ -4412,7 +4384,7 @@
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B276" s="1">
         <v>28</v>
@@ -4426,7 +4398,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B277" s="1">
         <v>28</v>
@@ -4440,7 +4412,7 @@
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B278" s="1">
         <v>28</v>
@@ -4454,7 +4426,7 @@
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B279" s="1">
         <v>28</v>
@@ -4468,7 +4440,7 @@
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B280" s="1">
         <v>28</v>
@@ -4482,7 +4454,7 @@
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B281" s="1">
         <v>28</v>
@@ -4496,7 +4468,7 @@
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B282" s="1">
         <v>29</v>
@@ -4510,7 +4482,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B283" s="1">
         <v>29</v>
@@ -4524,7 +4496,7 @@
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B284" s="1">
         <v>29</v>
@@ -4538,7 +4510,7 @@
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B285" s="1">
         <v>29</v>
@@ -4552,7 +4524,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B286" s="1">
         <v>29</v>
@@ -4566,7 +4538,7 @@
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B287" s="1">
         <v>29</v>
@@ -4580,7 +4552,7 @@
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B288" s="1">
         <v>29</v>
@@ -4594,7 +4566,7 @@
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B289" s="1">
         <v>29</v>
@@ -4608,7 +4580,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B290" s="1">
         <v>29</v>
@@ -4622,7 +4594,7 @@
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B291" s="1">
         <v>29</v>
@@ -4636,7 +4608,7 @@
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B292" s="1">
         <v>30</v>
@@ -4650,7 +4622,7 @@
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B293" s="1">
         <v>30</v>
@@ -4664,7 +4636,7 @@
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B294" s="1">
         <v>30</v>
@@ -4678,7 +4650,7 @@
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B295" s="1">
         <v>30</v>
@@ -4692,7 +4664,7 @@
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B296" s="1">
         <v>30</v>
@@ -4706,7 +4678,7 @@
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B297" s="1">
         <v>30</v>
@@ -4720,7 +4692,7 @@
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B298" s="1">
         <v>30</v>
@@ -4734,7 +4706,7 @@
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B299" s="1">
         <v>30</v>
@@ -4748,7 +4720,7 @@
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B300" s="1">
         <v>30</v>
@@ -4762,7 +4734,7 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B301" s="1">
         <v>30</v>
@@ -4776,7 +4748,7 @@
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B302" s="1">
         <v>31</v>
@@ -4790,7 +4762,7 @@
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B303" s="1">
         <v>31</v>
@@ -4804,7 +4776,7 @@
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B304" s="1">
         <v>31</v>
@@ -4818,7 +4790,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B305" s="1">
         <v>31</v>
@@ -4832,7 +4804,7 @@
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B306" s="1">
         <v>31</v>
@@ -4846,7 +4818,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B307" s="1">
         <v>31</v>
@@ -4860,7 +4832,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B308" s="1">
         <v>31</v>
@@ -4874,7 +4846,7 @@
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B309" s="1">
         <v>31</v>
@@ -4888,7 +4860,7 @@
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B310" s="1">
         <v>31</v>
@@ -4902,7 +4874,7 @@
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B311" s="1">
         <v>31</v>
@@ -4916,7 +4888,7 @@
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B312" s="1">
         <v>32</v>
@@ -4930,7 +4902,7 @@
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B313" s="1">
         <v>32</v>
@@ -4944,7 +4916,7 @@
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B314" s="1">
         <v>32</v>
@@ -4958,7 +4930,7 @@
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B315" s="1">
         <v>32</v>
@@ -4972,7 +4944,7 @@
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B316" s="1">
         <v>32</v>
@@ -4986,7 +4958,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B317" s="1">
         <v>32</v>
@@ -5000,7 +4972,7 @@
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B318" s="1">
         <v>32</v>
@@ -5014,7 +4986,7 @@
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B319" s="1">
         <v>32</v>
@@ -5028,7 +5000,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B320" s="1">
         <v>32</v>
@@ -5042,7 +5014,7 @@
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B321" s="1">
         <v>32</v>
@@ -5056,7 +5028,7 @@
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B322" s="1">
         <v>33</v>
@@ -5070,7 +5042,7 @@
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B323" s="1">
         <v>33</v>
@@ -5084,7 +5056,7 @@
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B324" s="1">
         <v>33</v>
@@ -5098,7 +5070,7 @@
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B325" s="1">
         <v>33</v>
@@ -5112,7 +5084,7 @@
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B326" s="1">
         <v>33</v>
@@ -5126,7 +5098,7 @@
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B327" s="1">
         <v>33</v>
@@ -5140,7 +5112,7 @@
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B328" s="1">
         <v>33</v>
@@ -5154,7 +5126,7 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B329" s="1">
         <v>33</v>
@@ -5168,7 +5140,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B330" s="1">
         <v>33</v>
@@ -5182,7 +5154,7 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B331" s="1">
         <v>33</v>
@@ -5196,7 +5168,7 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B332" s="1">
         <v>34</v>
@@ -5210,7 +5182,7 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B333" s="1">
         <v>34</v>
@@ -5224,7 +5196,7 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B334" s="1">
         <v>34</v>
@@ -5238,7 +5210,7 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B335" s="1">
         <v>34</v>
@@ -5252,7 +5224,7 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B336" s="1">
         <v>34</v>
@@ -5266,7 +5238,7 @@
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B337" s="1">
         <v>34</v>
@@ -5280,7 +5252,7 @@
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B338" s="1">
         <v>34</v>
@@ -5294,7 +5266,7 @@
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B339" s="1">
         <v>34</v>
@@ -5308,7 +5280,7 @@
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B340" s="1">
         <v>34</v>
@@ -5322,7 +5294,7 @@
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B341" s="1">
         <v>34</v>
@@ -5336,7 +5308,7 @@
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B342" s="1">
         <v>35</v>
@@ -5350,7 +5322,7 @@
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B343" s="1">
         <v>35</v>
@@ -5364,7 +5336,7 @@
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B344" s="1">
         <v>35</v>
@@ -5378,7 +5350,7 @@
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B345" s="1">
         <v>35</v>
@@ -5392,7 +5364,7 @@
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B346" s="1">
         <v>35</v>
@@ -5406,7 +5378,7 @@
     </row>
     <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B347" s="1">
         <v>35</v>
@@ -5420,7 +5392,7 @@
     </row>
     <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B348" s="1">
         <v>35</v>
@@ -5434,7 +5406,7 @@
     </row>
     <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B349" s="1">
         <v>35</v>
@@ -5448,7 +5420,7 @@
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B350" s="1">
         <v>35</v>
@@ -5462,7 +5434,7 @@
     </row>
     <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B351" s="1">
         <v>35</v>
@@ -5476,7 +5448,7 @@
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B352" s="1">
         <v>36</v>
@@ -5490,7 +5462,7 @@
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B353" s="1">
         <v>36</v>
@@ -5504,7 +5476,7 @@
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B354" s="1">
         <v>36</v>
@@ -5518,7 +5490,7 @@
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B355" s="1">
         <v>36</v>
@@ -5532,7 +5504,7 @@
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B356" s="1">
         <v>36</v>
@@ -5546,7 +5518,7 @@
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B357" s="1">
         <v>36</v>
@@ -5560,7 +5532,7 @@
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B358" s="1">
         <v>36</v>
@@ -5574,7 +5546,7 @@
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B359" s="1">
         <v>36</v>
@@ -5588,7 +5560,7 @@
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B360" s="1">
         <v>36</v>
@@ -5602,7 +5574,7 @@
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B361" s="1">
         <v>36</v>
@@ -5616,7 +5588,7 @@
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B362" s="1">
         <v>37</v>
@@ -5630,7 +5602,7 @@
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B363" s="1">
         <v>37</v>
@@ -5644,7 +5616,7 @@
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B364" s="1">
         <v>37</v>
@@ -5658,7 +5630,7 @@
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B365" s="1">
         <v>37</v>
@@ -5672,7 +5644,7 @@
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B366" s="1">
         <v>37</v>
@@ -5686,7 +5658,7 @@
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B367" s="1">
         <v>37</v>
@@ -5700,7 +5672,7 @@
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B368" s="1">
         <v>37</v>
@@ -5714,7 +5686,7 @@
     </row>
     <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B369" s="1">
         <v>37</v>
@@ -5728,7 +5700,7 @@
     </row>
     <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B370" s="1">
         <v>37</v>
@@ -5742,7 +5714,7 @@
     </row>
     <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B371" s="1">
         <v>37</v>
@@ -5756,7 +5728,7 @@
     </row>
     <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B372" s="1">
         <v>38</v>
@@ -5770,7 +5742,7 @@
     </row>
     <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B373" s="1">
         <v>38</v>
@@ -5784,7 +5756,7 @@
     </row>
     <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B374" s="1">
         <v>38</v>
@@ -5798,7 +5770,7 @@
     </row>
     <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B375" s="1">
         <v>38</v>
@@ -5812,7 +5784,7 @@
     </row>
     <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B376" s="1">
         <v>38</v>
@@ -5826,7 +5798,7 @@
     </row>
     <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B377" s="1">
         <v>38</v>
@@ -5840,7 +5812,7 @@
     </row>
     <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B378" s="1">
         <v>38</v>
@@ -5854,7 +5826,7 @@
     </row>
     <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B379" s="1">
         <v>38</v>
@@ -5868,7 +5840,7 @@
     </row>
     <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B380" s="1">
         <v>38</v>
@@ -5882,7 +5854,7 @@
     </row>
     <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B381" s="1">
         <v>38</v>
@@ -5897,7 +5869,7 @@
   </sheetData>
   <autoFilter ref="B1:M1" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}"/>
   <conditionalFormatting sqref="B2:D381">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LaLiga_Games.xlsx
+++ b/LaLiga_Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2638567-BF01-42DA-893E-0C088621BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEA1E5-E844-4486-8B02-7DA7DD854F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F89C1013-901B-4114-8209-3717706E1150}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="26">
   <si>
     <t>Almería</t>
   </si>
@@ -115,14 +115,24 @@
   <si>
     <t>League</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +202,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,5355 +535,6501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
         <v>4</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1">
         <v>4</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="1">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1">
         <v>5</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="1">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="1">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="1">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="1">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1">
         <v>6</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="1">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1">
         <v>6</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="1">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1">
         <v>6</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="1">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
         <v>6</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="1">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1">
         <v>6</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="1">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1">
         <v>6</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="1">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="1">
         <v>6</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="1">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
         <v>6</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="1">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
         <v>7</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="1">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
         <v>7</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="1">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
         <v>7</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="1">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1">
         <v>7</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="1">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1">
         <v>7</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="1">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="1">
         <v>7</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="1">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="1">
         <v>7</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="1">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1">
         <v>7</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="1">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1">
         <v>7</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="1">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="1">
         <v>7</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="1">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1">
         <v>8</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="1">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1">
         <v>8</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="1">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="1">
         <v>8</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="1">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="1">
         <v>8</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="1">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1">
         <v>8</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="1">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="1">
         <v>8</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="1">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1">
         <v>8</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="1">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="1">
         <v>8</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="1">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="1">
         <v>8</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="1">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="1">
         <v>8</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="1">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1">
         <v>9</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="1">
         <v>9</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="1">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1">
         <v>9</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="1">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1">
         <v>9</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="1">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="1">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="1">
         <v>9</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="1">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1">
         <v>9</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="1">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="1">
         <v>9</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="1">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="1">
         <v>9</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="1">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="1">
         <v>9</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="1">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="1">
         <v>10</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="1">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="1">
         <v>10</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="1">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="1">
         <v>10</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="1">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="1">
         <v>10</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="1">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1">
         <v>10</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="1">
         <v>10</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="1">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="1">
         <v>10</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="1">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="1">
         <v>10</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="1">
         <v>10</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="1">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="1">
         <v>10</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="1">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="1">
         <v>11</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="1">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="1">
         <v>11</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="1">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="1">
         <v>11</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="1">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="1">
         <v>11</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="1">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="1">
         <v>11</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="1">
         <v>11</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="1">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="1">
         <v>11</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="1">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="1">
         <v>11</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="1">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="1">
         <v>11</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="1">
         <v>11</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="1">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="1">
         <v>12</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="1">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="1">
         <v>12</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="1">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="1">
         <v>12</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="1">
         <v>12</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="1">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="1">
         <v>12</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="1">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="1">
         <v>12</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="1">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="1">
         <v>12</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="1">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="1">
         <v>12</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="1">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="1">
         <v>12</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="1">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="1">
         <v>12</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="1">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="1">
         <v>13</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="1">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1">
         <v>13</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="1">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="1">
         <v>13</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="1">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="1">
         <v>13</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="1">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1">
         <v>13</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="1">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="1">
         <v>13</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="1">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="1">
         <v>13</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="1">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="1">
         <v>13</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="1">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="1">
         <v>13</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="1">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="1">
         <v>13</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="1">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="1">
         <v>14</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="E132" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="1">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="1">
         <v>14</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="1">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="1">
         <v>14</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="1">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="1">
         <v>14</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="1">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="1">
         <v>14</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="1">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="1">
         <v>14</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="1">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="1">
         <v>14</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="1">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1">
         <v>14</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="1">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="1">
         <v>14</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="1">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="1">
         <v>14</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142" s="1">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="1">
         <v>15</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="1">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="1">
         <v>15</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" s="1">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="1">
         <v>15</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="E144" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="1">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="1">
         <v>15</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>23</v>
-      </c>
-      <c r="B146" s="1">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="1">
         <v>15</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="1">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="1">
         <v>15</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="1">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="1">
         <v>15</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="1">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="1">
         <v>15</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>23</v>
-      </c>
-      <c r="B150" s="1">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="1">
         <v>15</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" s="1">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="1">
         <v>15</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="E151" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" s="1">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="1">
         <v>16</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="E152" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>23</v>
-      </c>
-      <c r="B153" s="1">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="1">
         <v>16</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="1">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="1">
         <v>16</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="E154" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="1">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="1">
         <v>16</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="E155" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" s="1">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="1">
         <v>16</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="1">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="1">
         <v>16</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="1">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="1">
         <v>16</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" s="1">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="1">
         <v>16</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="E159" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" s="1">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B160" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="1">
         <v>16</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B161" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="1">
         <v>16</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="E161" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="1">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="1">
         <v>17</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="E162" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>23</v>
-      </c>
-      <c r="B163" s="1">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="1">
         <v>17</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="E163" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="1">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="1">
         <v>17</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="E164" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="1">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="1">
         <v>17</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="E165" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="1">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="1">
         <v>17</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" s="1">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="1">
         <v>17</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="E167" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>23</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="1">
         <v>17</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="E168" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" s="1">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="1">
         <v>17</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" s="1">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="1">
         <v>17</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="E170" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" s="1">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="1">
         <v>17</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" s="1">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="1">
         <v>18</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" s="1">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="1">
         <v>18</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="1">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B174" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="1">
         <v>18</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="E174" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" s="1">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="1">
         <v>18</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" s="1">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="1">
         <v>18</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" s="1">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="1">
         <v>18</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="E177" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" s="1">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="1">
         <v>18</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" s="1">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="1">
         <v>18</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="E179" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" s="1">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="1">
         <v>18</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="E180" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" s="1">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>45279</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="1">
         <v>18</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" s="1">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B182" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="1">
         <v>19</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="E182" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B183" s="1">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="1">
         <v>19</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" s="1">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="1">
         <v>19</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" s="1">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B185" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="1">
         <v>19</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="E185" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>23</v>
-      </c>
-      <c r="B186" s="1">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="1">
         <v>19</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" s="1">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B187" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="1">
         <v>19</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="1">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B188" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="1">
         <v>19</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" s="1">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B189" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="1">
         <v>19</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>23</v>
-      </c>
-      <c r="B190" s="1">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="1">
         <v>19</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>23</v>
-      </c>
-      <c r="B191" s="1">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="1">
         <v>19</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>23</v>
-      </c>
-      <c r="B192" s="1">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="1">
         <v>20</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>23</v>
-      </c>
-      <c r="B193" s="1">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B193" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="1">
         <v>20</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="E193" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>23</v>
-      </c>
-      <c r="B194" s="1">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B194" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="1">
         <v>20</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>23</v>
-      </c>
-      <c r="B195" s="1">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B195" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="1">
         <v>20</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="E195" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>23</v>
-      </c>
-      <c r="B196" s="1">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="1">
         <v>20</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="E196" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>23</v>
-      </c>
-      <c r="B197" s="1">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="1">
         <v>20</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="E197" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198" s="1">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="1">
         <v>20</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="E198" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199" s="1">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B199" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="1">
         <v>20</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="E199" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>23</v>
-      </c>
-      <c r="B200" s="1">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="1">
         <v>20</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201" s="1">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="1">
         <v>20</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>23</v>
-      </c>
-      <c r="B202" s="1">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B202" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="1">
         <v>21</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="E202" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>23</v>
-      </c>
-      <c r="B203" s="1">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B203" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="1">
         <v>21</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>23</v>
-      </c>
-      <c r="B204" s="1">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="1">
         <v>21</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="E204" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>23</v>
-      </c>
-      <c r="B205" s="1">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="1">
         <v>21</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="E205" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>23</v>
-      </c>
-      <c r="B206" s="1">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B206" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="1">
         <v>21</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D206" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>23</v>
-      </c>
-      <c r="B207" s="1">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B207" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="1">
         <v>21</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="E207" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>23</v>
-      </c>
-      <c r="B208" s="1">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="1">
         <v>21</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="E208" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>23</v>
-      </c>
-      <c r="B209" s="1">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B209" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="1">
         <v>21</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D209" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="E209" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>23</v>
-      </c>
-      <c r="B210" s="1">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B210" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="1">
         <v>21</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D210" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="E210" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>23</v>
-      </c>
-      <c r="B211" s="1">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="1">
         <v>21</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="E211" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>23</v>
-      </c>
-      <c r="B212" s="1">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="1">
         <v>22</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="E212" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>23</v>
-      </c>
-      <c r="B213" s="1">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B213" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="1">
         <v>22</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="D213" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="E213" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>23</v>
-      </c>
-      <c r="B214" s="1">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B214" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="1">
         <v>22</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="D214" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="E214" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>23</v>
-      </c>
-      <c r="B215" s="1">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B215" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="1">
         <v>22</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="D215" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="E215" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>23</v>
-      </c>
-      <c r="B216" s="1">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B216" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" s="1">
         <v>22</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="E216" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>23</v>
-      </c>
-      <c r="B217" s="1">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B217" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="1">
         <v>22</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>23</v>
-      </c>
-      <c r="B218" s="1">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="1">
         <v>22</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="D218" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="E218" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>23</v>
-      </c>
-      <c r="B219" s="1">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="1">
         <v>22</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="E219" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>23</v>
-      </c>
-      <c r="B220" s="1">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="1">
         <v>22</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="E220" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>23</v>
-      </c>
-      <c r="B221" s="1">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B221" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" s="1">
         <v>22</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="E221" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>23</v>
-      </c>
-      <c r="B222" s="1">
-        <v>23</v>
-      </c>
-      <c r="C222" s="3" t="s">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B222" t="s">
+        <v>23</v>
+      </c>
+      <c r="C222" s="1">
+        <v>23</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="E222" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>23</v>
-      </c>
-      <c r="B223" s="1">
-        <v>23</v>
-      </c>
-      <c r="C223" s="3" t="s">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B223" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223" s="1">
+        <v>23</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="E223" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>23</v>
-      </c>
-      <c r="B224" s="1">
-        <v>23</v>
-      </c>
-      <c r="C224" s="3" t="s">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B224" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" s="1">
+        <v>23</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="E224" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>23</v>
-      </c>
-      <c r="B225" s="1">
-        <v>23</v>
-      </c>
-      <c r="C225" s="3" t="s">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B225" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="1">
+        <v>23</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="E225" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226" s="1">
-        <v>23</v>
-      </c>
-      <c r="C226" s="3" t="s">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B226" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" s="1">
+        <v>23</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="E226" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>23</v>
-      </c>
-      <c r="B227" s="1">
-        <v>23</v>
-      </c>
-      <c r="C227" s="3" t="s">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B227" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="1">
+        <v>23</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="E227" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>23</v>
-      </c>
-      <c r="B228" s="1">
-        <v>23</v>
-      </c>
-      <c r="C228" s="3" t="s">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B228" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="1">
+        <v>23</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="E228" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>23</v>
-      </c>
-      <c r="B229" s="1">
-        <v>23</v>
-      </c>
-      <c r="C229" s="3" t="s">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B229" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="1">
+        <v>23</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="E229" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>23</v>
-      </c>
-      <c r="B230" s="1">
-        <v>23</v>
-      </c>
-      <c r="C230" s="3" t="s">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B230" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" s="1">
+        <v>23</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>23</v>
-      </c>
-      <c r="B231" s="1">
-        <v>23</v>
-      </c>
-      <c r="C231" s="3" t="s">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B231" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="1">
+        <v>23</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="E231" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>23</v>
-      </c>
-      <c r="B232" s="1">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="1">
         <v>24</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="E232" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>23</v>
-      </c>
-      <c r="B233" s="1">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B233" t="s">
+        <v>23</v>
+      </c>
+      <c r="C233" s="1">
         <v>24</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="E233" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>23</v>
-      </c>
-      <c r="B234" s="1">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B234" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="1">
         <v>24</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="D234" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>23</v>
-      </c>
-      <c r="B235" s="1">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B235" t="s">
+        <v>23</v>
+      </c>
+      <c r="C235" s="1">
         <v>24</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="E235" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>23</v>
-      </c>
-      <c r="B236" s="1">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B236" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="1">
         <v>24</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="E236" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>23</v>
-      </c>
-      <c r="B237" s="1">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B237" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" s="1">
         <v>24</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="E237" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>23</v>
-      </c>
-      <c r="B238" s="1">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B238" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" s="1">
         <v>24</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="E238" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>23</v>
-      </c>
-      <c r="B239" s="1">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B239" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="1">
         <v>24</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="E239" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>23</v>
-      </c>
-      <c r="B240" s="1">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B240" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" s="1">
         <v>24</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="E240" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>23</v>
-      </c>
-      <c r="B241" s="1">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B241" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241" s="1">
         <v>24</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="E241" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>23</v>
-      </c>
-      <c r="B242" s="1">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B242" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" s="1">
         <v>25</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="E242" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>23</v>
-      </c>
-      <c r="B243" s="1">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B243" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" s="1">
         <v>25</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="E243" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>23</v>
-      </c>
-      <c r="B244" s="1">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" s="1">
         <v>25</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="E244" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>23</v>
-      </c>
-      <c r="B245" s="1">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" s="1">
         <v>25</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="E245" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>23</v>
-      </c>
-      <c r="B246" s="1">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B246" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" s="1">
         <v>25</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>23</v>
-      </c>
-      <c r="B247" s="1">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B247" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="1">
         <v>25</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>23</v>
-      </c>
-      <c r="B248" s="1">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B248" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248" s="1">
         <v>25</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="E248" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>23</v>
-      </c>
-      <c r="B249" s="1">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B249" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" s="1">
         <v>25</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>23</v>
-      </c>
-      <c r="B250" s="1">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" s="1">
         <v>25</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="E250" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>23</v>
-      </c>
-      <c r="B251" s="1">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" s="1">
         <v>25</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="E251" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>23</v>
-      </c>
-      <c r="B252" s="1">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B252" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" s="1">
         <v>26</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="E252" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>23</v>
-      </c>
-      <c r="B253" s="1">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B253" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253" s="1">
         <v>26</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="D253" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="E253" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>23</v>
-      </c>
-      <c r="B254" s="1">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" s="1">
         <v>26</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>23</v>
-      </c>
-      <c r="B255" s="1">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" s="1">
         <v>26</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="D255" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>23</v>
-      </c>
-      <c r="B256" s="1">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" s="1">
         <v>26</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="E256" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>23</v>
-      </c>
-      <c r="B257" s="1">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="1">
         <v>26</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="E257" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>23</v>
-      </c>
-      <c r="B258" s="1">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" s="1">
         <v>26</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="E258" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>23</v>
-      </c>
-      <c r="B259" s="1">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" s="1">
         <v>26</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="E259" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>23</v>
-      </c>
-      <c r="B260" s="1">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" s="1">
         <v>26</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="E260" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>23</v>
-      </c>
-      <c r="B261" s="1">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" s="1">
         <v>26</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="E261" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>23</v>
-      </c>
-      <c r="B262" s="1">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" s="1">
         <v>27</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="E262" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>23</v>
-      </c>
-      <c r="B263" s="1">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B263" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" s="1">
         <v>27</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="E263" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>23</v>
-      </c>
-      <c r="B264" s="1">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B264" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" s="1">
         <v>27</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="E264" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>23</v>
-      </c>
-      <c r="B265" s="1">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B265" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265" s="1">
         <v>27</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="E265" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>23</v>
-      </c>
-      <c r="B266" s="1">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="1">
         <v>27</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="E266" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>23</v>
-      </c>
-      <c r="B267" s="1">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B267" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="1">
         <v>27</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="E267" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>23</v>
-      </c>
-      <c r="B268" s="1">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B268" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="1">
         <v>27</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="E268" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>23</v>
-      </c>
-      <c r="B269" s="1">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B269" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="1">
         <v>27</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="D269" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="E269" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>23</v>
-      </c>
-      <c r="B270" s="1">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B270" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="1">
         <v>27</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>23</v>
-      </c>
-      <c r="B271" s="1">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B271" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" s="1">
         <v>27</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="E271" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>23</v>
-      </c>
-      <c r="B272" s="1">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" s="1">
         <v>28</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="E272" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>23</v>
-      </c>
-      <c r="B273" s="1">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" s="1">
         <v>28</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="D273" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="E273" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>23</v>
-      </c>
-      <c r="B274" s="1">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" s="1">
         <v>28</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="E274" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>23</v>
-      </c>
-      <c r="B275" s="1">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" s="1">
         <v>28</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D275" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="E275" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>23</v>
-      </c>
-      <c r="B276" s="1">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" s="1">
         <v>28</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="E276" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>23</v>
-      </c>
-      <c r="B277" s="1">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="1">
         <v>28</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="E277" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>23</v>
-      </c>
-      <c r="B278" s="1">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B278" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" s="1">
         <v>28</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D278" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="E278" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>23</v>
-      </c>
-      <c r="B279" s="1">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B279" t="s">
+        <v>23</v>
+      </c>
+      <c r="C279" s="1">
         <v>28</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="E279" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>23</v>
-      </c>
-      <c r="B280" s="1">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B280" t="s">
+        <v>23</v>
+      </c>
+      <c r="C280" s="1">
         <v>28</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>23</v>
-      </c>
-      <c r="B281" s="1">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B281" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" s="1">
         <v>28</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="E281" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>23</v>
-      </c>
-      <c r="B282" s="1">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B282" t="s">
+        <v>23</v>
+      </c>
+      <c r="C282" s="1">
         <v>29</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="E282" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>23</v>
-      </c>
-      <c r="B283" s="1">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B283" t="s">
+        <v>23</v>
+      </c>
+      <c r="C283" s="1">
         <v>29</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="E283" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>23</v>
-      </c>
-      <c r="B284" s="1">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" s="1">
         <v>29</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="E284" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>23</v>
-      </c>
-      <c r="B285" s="1">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B285" t="s">
+        <v>23</v>
+      </c>
+      <c r="C285" s="1">
         <v>29</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="D285" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="E285" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>23</v>
-      </c>
-      <c r="B286" s="1">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B286" t="s">
+        <v>23</v>
+      </c>
+      <c r="C286" s="1">
         <v>29</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="E286" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>23</v>
-      </c>
-      <c r="B287" s="1">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" s="1">
         <v>29</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="E287" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>23</v>
-      </c>
-      <c r="B288" s="1">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B288" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="1">
         <v>29</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="E288" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>23</v>
-      </c>
-      <c r="B289" s="1">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B289" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" s="1">
         <v>29</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="E289" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>23</v>
-      </c>
-      <c r="B290" s="1">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" s="1">
         <v>29</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>23</v>
-      </c>
-      <c r="B291" s="1">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B291" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" s="1">
         <v>29</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="D291" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="E291" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>23</v>
-      </c>
-      <c r="B292" s="1">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B292" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" s="1">
         <v>30</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="E292" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>23</v>
-      </c>
-      <c r="B293" s="1">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" s="1">
         <v>30</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="E293" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>23</v>
-      </c>
-      <c r="B294" s="1">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B294" t="s">
+        <v>23</v>
+      </c>
+      <c r="C294" s="1">
         <v>30</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="E294" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>23</v>
-      </c>
-      <c r="B295" s="1">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B295" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295" s="1">
         <v>30</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="E295" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>23</v>
-      </c>
-      <c r="B296" s="1">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="1">
         <v>30</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="D296" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="E296" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>23</v>
-      </c>
-      <c r="B297" s="1">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" s="1">
         <v>30</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="E297" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>23</v>
-      </c>
-      <c r="B298" s="1">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B298" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" s="1">
         <v>30</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>23</v>
-      </c>
-      <c r="B299" s="1">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" s="1">
         <v>30</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>23</v>
-      </c>
-      <c r="B300" s="1">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B300" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" s="1">
         <v>30</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="D300" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="E300" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>23</v>
-      </c>
-      <c r="B301" s="1">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" s="1">
         <v>30</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="D301" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="E301" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>23</v>
-      </c>
-      <c r="B302" s="1">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" s="1">
         <v>31</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="E302" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>23</v>
-      </c>
-      <c r="B303" s="1">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B303" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" s="1">
         <v>31</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="E303" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>23</v>
-      </c>
-      <c r="B304" s="1">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B304" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304" s="1">
         <v>31</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="D304" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="E304" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>23</v>
-      </c>
-      <c r="B305" s="1">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305" s="1">
         <v>31</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="E305" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>23</v>
-      </c>
-      <c r="B306" s="1">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B306" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" s="1">
         <v>31</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="E306" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>23</v>
-      </c>
-      <c r="B307" s="1">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" s="1">
         <v>31</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="E307" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>23</v>
-      </c>
-      <c r="B308" s="1">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B308" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" s="1">
         <v>31</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="E308" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>23</v>
-      </c>
-      <c r="B309" s="1">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B309" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" s="1">
         <v>31</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="E309" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>23</v>
-      </c>
-      <c r="B310" s="1">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B310" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="1">
         <v>31</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="E310" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>23</v>
-      </c>
-      <c r="B311" s="1">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B311" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" s="1">
         <v>31</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="E311" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>23</v>
-      </c>
-      <c r="B312" s="1">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B312" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" s="1">
         <v>32</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="E312" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>23</v>
-      </c>
-      <c r="B313" s="1">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B313" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" s="1">
         <v>32</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="E313" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>23</v>
-      </c>
-      <c r="B314" s="1">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B314" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" s="1">
         <v>32</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="E314" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>23</v>
-      </c>
-      <c r="B315" s="1">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B315" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" s="1">
         <v>32</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D315" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="E315" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>23</v>
-      </c>
-      <c r="B316" s="1">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B316" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" s="1">
         <v>32</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="E316" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>23</v>
-      </c>
-      <c r="B317" s="1">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B317" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" s="1">
         <v>32</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="E317" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>23</v>
-      </c>
-      <c r="B318" s="1">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B318" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" s="1">
         <v>32</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="E318" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>23</v>
-      </c>
-      <c r="B319" s="1">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B319" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" s="1">
         <v>32</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="E319" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>23</v>
-      </c>
-      <c r="B320" s="1">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" s="1">
         <v>32</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="E320" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>23</v>
-      </c>
-      <c r="B321" s="1">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" s="1">
         <v>32</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="E321" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>23</v>
-      </c>
-      <c r="B322" s="1">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B322" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" s="1">
         <v>33</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="E322" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>23</v>
-      </c>
-      <c r="B323" s="1">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B323" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" s="1">
         <v>33</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>23</v>
-      </c>
-      <c r="B324" s="1">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B324" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324" s="1">
         <v>33</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="E324" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>23</v>
-      </c>
-      <c r="B325" s="1">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B325" t="s">
+        <v>23</v>
+      </c>
+      <c r="C325" s="1">
         <v>33</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="E325" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>23</v>
-      </c>
-      <c r="B326" s="1">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B326" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" s="1">
         <v>33</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>23</v>
-      </c>
-      <c r="B327" s="1">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B327" t="s">
+        <v>23</v>
+      </c>
+      <c r="C327" s="1">
         <v>33</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>23</v>
-      </c>
-      <c r="B328" s="1">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B328" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328" s="1">
         <v>33</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D328" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="E328" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>23</v>
-      </c>
-      <c r="B329" s="1">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B329" t="s">
+        <v>23</v>
+      </c>
+      <c r="C329" s="1">
         <v>33</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="E329" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>23</v>
-      </c>
-      <c r="B330" s="1">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B330" t="s">
+        <v>23</v>
+      </c>
+      <c r="C330" s="1">
         <v>33</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="E330" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>23</v>
-      </c>
-      <c r="B331" s="1">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B331" t="s">
+        <v>23</v>
+      </c>
+      <c r="C331" s="1">
         <v>33</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="E331" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>23</v>
-      </c>
-      <c r="B332" s="1">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" s="1">
         <v>34</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="E332" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>23</v>
-      </c>
-      <c r="B333" s="1">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B333" t="s">
+        <v>23</v>
+      </c>
+      <c r="C333" s="1">
         <v>34</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D333" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="E333" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>23</v>
-      </c>
-      <c r="B334" s="1">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" s="1">
         <v>34</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D334" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="E334" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>23</v>
-      </c>
-      <c r="B335" s="1">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335" s="1">
         <v>34</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="E335" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>23</v>
-      </c>
-      <c r="B336" s="1">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336" s="1">
         <v>34</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="E336" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>23</v>
-      </c>
-      <c r="B337" s="1">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B337" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337" s="1">
         <v>34</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="E337" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>23</v>
-      </c>
-      <c r="B338" s="1">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" s="1">
         <v>34</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="E338" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>23</v>
-      </c>
-      <c r="B339" s="1">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" s="1">
         <v>34</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="E339" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>23</v>
-      </c>
-      <c r="B340" s="1">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340" s="1">
         <v>34</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="D340" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="E340" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>23</v>
-      </c>
-      <c r="B341" s="1">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B341" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" s="1">
         <v>34</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D341" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="E341" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>23</v>
-      </c>
-      <c r="B342" s="1">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B342" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" s="1">
         <v>35</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="D342" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="E342" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>23</v>
-      </c>
-      <c r="B343" s="1">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B343" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="1">
         <v>35</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="D343" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="E343" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>23</v>
-      </c>
-      <c r="B344" s="1">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" s="1">
         <v>35</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="D344" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="E344" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>23</v>
-      </c>
-      <c r="B345" s="1">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B345" t="s">
+        <v>23</v>
+      </c>
+      <c r="C345" s="1">
         <v>35</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="D345" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="E345" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>23</v>
-      </c>
-      <c r="B346" s="1">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" s="1">
         <v>35</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="D346" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="E346" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>23</v>
-      </c>
-      <c r="B347" s="1">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B347" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347" s="1">
         <v>35</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="D347" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="E347" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>23</v>
-      </c>
-      <c r="B348" s="1">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B348" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348" s="1">
         <v>35</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="E348" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>23</v>
-      </c>
-      <c r="B349" s="1">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B349" t="s">
+        <v>23</v>
+      </c>
+      <c r="C349" s="1">
         <v>35</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="D349" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="E349" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>23</v>
-      </c>
-      <c r="B350" s="1">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" s="1">
         <v>35</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="D350" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="E350" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>23</v>
-      </c>
-      <c r="B351" s="1">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B351" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351" s="1">
         <v>35</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="D351" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="E351" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>23</v>
-      </c>
-      <c r="B352" s="1">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B352" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352" s="1">
         <v>36</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="D352" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D352" s="3" t="s">
+      <c r="E352" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>23</v>
-      </c>
-      <c r="B353" s="1">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B353" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" s="1">
         <v>36</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="D353" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D353" s="3" t="s">
+      <c r="E353" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>23</v>
-      </c>
-      <c r="B354" s="1">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B354" t="s">
+        <v>23</v>
+      </c>
+      <c r="C354" s="1">
         <v>36</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="D354" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="E354" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>23</v>
-      </c>
-      <c r="B355" s="1">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B355" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355" s="1">
         <v>36</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="D355" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="E355" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>23</v>
-      </c>
-      <c r="B356" s="1">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B356" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" s="1">
         <v>36</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="D356" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="E356" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>23</v>
-      </c>
-      <c r="B357" s="1">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B357" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" s="1">
         <v>36</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="D357" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="E357" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>23</v>
-      </c>
-      <c r="B358" s="1">
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B358" t="s">
+        <v>23</v>
+      </c>
+      <c r="C358" s="1">
         <v>36</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="E358" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>23</v>
-      </c>
-      <c r="B359" s="1">
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B359" t="s">
+        <v>23</v>
+      </c>
+      <c r="C359" s="1">
         <v>36</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="D359" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="E359" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>23</v>
-      </c>
-      <c r="B360" s="1">
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B360" t="s">
+        <v>23</v>
+      </c>
+      <c r="C360" s="1">
         <v>36</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="D360" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="E360" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>23</v>
-      </c>
-      <c r="B361" s="1">
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B361" t="s">
+        <v>23</v>
+      </c>
+      <c r="C361" s="1">
         <v>36</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="D361" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="E361" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>23</v>
-      </c>
-      <c r="B362" s="1">
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B362" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" s="1">
         <v>37</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="D362" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D362" s="3" t="s">
+      <c r="E362" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>23</v>
-      </c>
-      <c r="B363" s="1">
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B363" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363" s="1">
         <v>37</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="D363" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="E363" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>23</v>
-      </c>
-      <c r="B364" s="1">
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B364" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364" s="1">
         <v>37</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D364" s="3" t="s">
+      <c r="E364" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>23</v>
-      </c>
-      <c r="B365" s="1">
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" s="1">
         <v>37</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="D365" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D365" s="3" t="s">
+      <c r="E365" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>23</v>
-      </c>
-      <c r="B366" s="1">
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B366" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366" s="1">
         <v>37</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="D366" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D366" s="3" t="s">
+      <c r="E366" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>23</v>
-      </c>
-      <c r="B367" s="1">
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367" s="1">
         <v>37</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="D367" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D367" s="3" t="s">
+      <c r="E367" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>23</v>
-      </c>
-      <c r="B368" s="1">
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B368" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368" s="1">
         <v>37</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="D368" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D368" s="3" t="s">
+      <c r="E368" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>23</v>
-      </c>
-      <c r="B369" s="1">
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B369" t="s">
+        <v>23</v>
+      </c>
+      <c r="C369" s="1">
         <v>37</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="D369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="E369" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>23</v>
-      </c>
-      <c r="B370" s="1">
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B370" t="s">
+        <v>23</v>
+      </c>
+      <c r="C370" s="1">
         <v>37</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="D370" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="E370" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>23</v>
-      </c>
-      <c r="B371" s="1">
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B371" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371" s="1">
         <v>37</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="D371" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="3" t="s">
+      <c r="E371" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>23</v>
-      </c>
-      <c r="B372" s="1">
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B372" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" s="1">
         <v>38</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="D372" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="E372" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>23</v>
-      </c>
-      <c r="B373" s="1">
+    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B373" t="s">
+        <v>23</v>
+      </c>
+      <c r="C373" s="1">
         <v>38</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="D373" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D373" s="3" t="s">
+      <c r="E373" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>23</v>
-      </c>
-      <c r="B374" s="1">
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B374" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" s="1">
         <v>38</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="D374" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D374" s="3" t="s">
+      <c r="E374" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>23</v>
-      </c>
-      <c r="B375" s="1">
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B375" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375" s="1">
         <v>38</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="D375" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="E375" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>23</v>
-      </c>
-      <c r="B376" s="1">
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B376" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="1">
         <v>38</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="D376" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="E376" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>23</v>
-      </c>
-      <c r="B377" s="1">
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B377" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377" s="1">
         <v>38</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="D377" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D377" s="3" t="s">
+      <c r="E377" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>23</v>
-      </c>
-      <c r="B378" s="1">
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B378" t="s">
+        <v>23</v>
+      </c>
+      <c r="C378" s="1">
         <v>38</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="D378" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D378" s="3" t="s">
+      <c r="E378" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>23</v>
-      </c>
-      <c r="B379" s="1">
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B379" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379" s="1">
         <v>38</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="D379" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="E379" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>23</v>
-      </c>
-      <c r="B380" s="1">
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B380" t="s">
+        <v>23</v>
+      </c>
+      <c r="C380" s="1">
         <v>38</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="D380" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="E380" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>23</v>
-      </c>
-      <c r="B381" s="1">
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B381" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" s="1">
         <v>38</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="D381" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D381" s="3" t="s">
+      <c r="E381" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M1" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}"/>
-  <conditionalFormatting sqref="B2:D381">
+  <autoFilter ref="C1:N1" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}"/>
+  <conditionalFormatting sqref="C2:E381">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>

--- a/LaLiga_Games.xlsx
+++ b/LaLiga_Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEA1E5-E844-4486-8B02-7DA7DD854F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D120EB-4D37-4365-9AB6-604A36916E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F89C1013-901B-4114-8209-3717706E1150}"/>
   </bookViews>
@@ -202,7 +202,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548304A7-C7A9-4AF3-B103-A5D873F3C67A}">
   <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A184" sqref="A182:A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B182" t="s">
         <v>23</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B183" t="s">
         <v>23</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B184" t="s">
         <v>23</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B185" t="s">
         <v>23</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B186" t="s">
         <v>23</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B187" t="s">
         <v>23</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B188" t="s">
         <v>23</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B189" t="s">
         <v>23</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B190" t="s">
         <v>23</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="B191" t="s">
         <v>23</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B192" t="s">
         <v>23</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B193" t="s">
         <v>23</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B194" t="s">
         <v>23</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B195" t="s">
         <v>23</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B196" t="s">
         <v>23</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B197" t="s">
         <v>23</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B198" t="s">
         <v>23</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B199" t="s">
         <v>23</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B200" t="s">
         <v>23</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B201" t="s">
         <v>23</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B202" t="s">
         <v>23</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B203" t="s">
         <v>23</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B204" t="s">
         <v>23</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B205" t="s">
         <v>23</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B206" t="s">
         <v>23</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B207" t="s">
         <v>23</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B208" t="s">
         <v>23</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B209" t="s">
         <v>23</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B210" t="s">
         <v>23</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B211" t="s">
         <v>23</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B212" t="s">
         <v>23</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B213" t="s">
         <v>23</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B214" t="s">
         <v>23</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B215" t="s">
         <v>23</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B216" t="s">
         <v>23</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B217" t="s">
         <v>23</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B218" t="s">
         <v>23</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B219" t="s">
         <v>23</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B220" t="s">
         <v>23</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B221" t="s">
         <v>23</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B222" t="s">
         <v>23</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B223" t="s">
         <v>23</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B224" t="s">
         <v>23</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B225" t="s">
         <v>23</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B226" t="s">
         <v>23</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B227" t="s">
         <v>23</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B228" t="s">
         <v>23</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B229" t="s">
         <v>23</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B230" t="s">
         <v>23</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B231" t="s">
         <v>23</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B232" t="s">
         <v>23</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B233" t="s">
         <v>23</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B234" t="s">
         <v>23</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B235" t="s">
         <v>23</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B236" t="s">
         <v>23</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B237" t="s">
         <v>23</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B238" t="s">
         <v>23</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B240" t="s">
         <v>23</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B241" t="s">
         <v>23</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B242" t="s">
         <v>23</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B243" t="s">
         <v>23</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B245" t="s">
         <v>23</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B246" t="s">
         <v>23</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B247" t="s">
         <v>23</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B249" t="s">
         <v>23</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B250" t="s">
         <v>23</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B251" t="s">
         <v>23</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B252" t="s">
         <v>23</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B253" t="s">
         <v>23</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B254" t="s">
         <v>23</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B255" t="s">
         <v>23</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B256" t="s">
         <v>23</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B257" t="s">
         <v>23</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B258" t="s">
         <v>23</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B259" t="s">
         <v>23</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B260" t="s">
         <v>23</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B261" t="s">
         <v>23</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B262" t="s">
         <v>23</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B263" t="s">
         <v>23</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B264" t="s">
         <v>23</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B265" t="s">
         <v>23</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B266" t="s">
         <v>23</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B267" t="s">
         <v>23</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B268" t="s">
         <v>23</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B269" t="s">
         <v>23</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B270" t="s">
         <v>23</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B271" t="s">
         <v>23</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B272" t="s">
         <v>23</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B273" t="s">
         <v>23</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B274" t="s">
         <v>23</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B275" t="s">
         <v>23</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B276" t="s">
         <v>23</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B277" t="s">
         <v>23</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B278" t="s">
         <v>23</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B279" t="s">
         <v>23</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B280" t="s">
         <v>23</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B281" t="s">
         <v>23</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B282" t="s">
         <v>23</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B283" t="s">
         <v>23</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B284" t="s">
         <v>23</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B285" t="s">
         <v>23</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B286" t="s">
         <v>23</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B287" t="s">
         <v>23</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B288" t="s">
         <v>23</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B289" t="s">
         <v>23</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B290" t="s">
         <v>23</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B291" t="s">
         <v>23</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B292" t="s">
         <v>23</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B293" t="s">
         <v>23</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B294" t="s">
         <v>23</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B295" t="s">
         <v>23</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B296" t="s">
         <v>23</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B297" t="s">
         <v>23</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B298" t="s">
         <v>23</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B299" t="s">
         <v>23</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B300" t="s">
         <v>23</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B301" t="s">
         <v>23</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B302" t="s">
         <v>23</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B303" t="s">
         <v>23</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B304" t="s">
         <v>23</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B305" t="s">
         <v>23</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B306" t="s">
         <v>23</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B307" t="s">
         <v>23</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B308" t="s">
         <v>23</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B309" t="s">
         <v>23</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B310" t="s">
         <v>23</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B311" t="s">
         <v>23</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B312" t="s">
         <v>23</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B313" t="s">
         <v>23</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B314" t="s">
         <v>23</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B315" t="s">
         <v>23</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B316" t="s">
         <v>23</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B317" t="s">
         <v>23</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B318" t="s">
         <v>23</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B319" t="s">
         <v>23</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B320" t="s">
         <v>23</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B321" t="s">
         <v>23</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B322" t="s">
         <v>23</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B323" t="s">
         <v>23</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B324" t="s">
         <v>23</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B325" t="s">
         <v>23</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B326" t="s">
         <v>23</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B327" t="s">
         <v>23</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B328" t="s">
         <v>23</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B329" t="s">
         <v>23</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B330" t="s">
         <v>23</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B331" t="s">
         <v>23</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B332" t="s">
         <v>23</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B333" t="s">
         <v>23</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B334" t="s">
         <v>23</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B335" t="s">
         <v>23</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B336" t="s">
         <v>23</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B337" t="s">
         <v>23</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B338" t="s">
         <v>23</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B339" t="s">
         <v>23</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B340" t="s">
         <v>23</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B341" t="s">
         <v>23</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B342" t="s">
         <v>23</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B343" t="s">
         <v>23</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B344" t="s">
         <v>23</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B345" t="s">
         <v>23</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B346" t="s">
         <v>23</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B347" t="s">
         <v>23</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B348" t="s">
         <v>23</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B349" t="s">
         <v>23</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B350" t="s">
         <v>23</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B351" t="s">
         <v>23</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B352" t="s">
         <v>23</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B353" t="s">
         <v>23</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B354" t="s">
         <v>23</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B355" t="s">
         <v>23</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B356" t="s">
         <v>23</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B357" t="s">
         <v>23</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B358" t="s">
         <v>23</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B359" t="s">
         <v>23</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B360" t="s">
         <v>23</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>45060</v>
+        <v>45426</v>
       </c>
       <c r="B361" t="s">
         <v>23</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B362" t="s">
         <v>23</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B363" t="s">
         <v>23</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B364" t="s">
         <v>23</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B365" t="s">
         <v>23</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B366" t="s">
         <v>23</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B367" t="s">
         <v>23</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B368" t="s">
         <v>23</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B369" t="s">
         <v>23</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B370" t="s">
         <v>23</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>45064</v>
+        <v>45430</v>
       </c>
       <c r="B371" t="s">
         <v>23</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B372" t="s">
         <v>23</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B373" t="s">
         <v>23</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B374" t="s">
         <v>23</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B375" t="s">
         <v>23</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B376" t="s">
         <v>23</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B377" t="s">
         <v>23</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B378" t="s">
         <v>23</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B379" t="s">
         <v>23</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B380" t="s">
         <v>23</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>45071</v>
+        <v>45437</v>
       </c>
       <c r="B381" t="s">
         <v>23</v>
